--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Tff3</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H2">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I2">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J2">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.2421187233098</v>
+        <v>18.2502405</v>
       </c>
       <c r="N2">
-        <v>18.2421187233098</v>
+        <v>36.500481</v>
       </c>
       <c r="O2">
-        <v>0.2936539783903066</v>
+        <v>0.2786312431497853</v>
       </c>
       <c r="P2">
-        <v>0.2936539783903066</v>
+        <v>0.2136098924258371</v>
       </c>
       <c r="Q2">
-        <v>19.15690564177822</v>
+        <v>20.414828524743</v>
       </c>
       <c r="R2">
-        <v>19.15690564177822</v>
+        <v>81.659314098972</v>
       </c>
       <c r="S2">
-        <v>0.09682774730416922</v>
+        <v>0.06574223315962294</v>
       </c>
       <c r="T2">
-        <v>0.09682774730416922</v>
+        <v>0.03646864654737559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H3">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I3">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J3">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.0067970736347</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N3">
-        <v>25.0067970736347</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O3">
-        <v>0.4025489340823427</v>
+        <v>0.4135745938006323</v>
       </c>
       <c r="P3">
-        <v>0.4025489340823427</v>
+        <v>0.4755943204347743</v>
       </c>
       <c r="Q3">
-        <v>26.26081209144754</v>
+        <v>30.30189407040534</v>
       </c>
       <c r="R3">
-        <v>26.26081209144754</v>
+        <v>181.811364422432</v>
       </c>
       <c r="S3">
-        <v>0.1327341338283548</v>
+        <v>0.09758172510439257</v>
       </c>
       <c r="T3">
-        <v>0.1327341338283548</v>
+        <v>0.08119605779913402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H4">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I4">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J4">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.6391421668904</v>
+        <v>0.01819633333333333</v>
       </c>
       <c r="N4">
-        <v>11.6391421668904</v>
+        <v>0.054589</v>
       </c>
       <c r="O4">
-        <v>0.1873620303759107</v>
+        <v>0.0002778082281948308</v>
       </c>
       <c r="P4">
-        <v>0.1873620303759107</v>
+        <v>0.0003194684042008658</v>
       </c>
       <c r="Q4">
-        <v>12.22280984047375</v>
+        <v>0.02035452764466666</v>
       </c>
       <c r="R4">
-        <v>12.22280984047375</v>
+        <v>0.122127165868</v>
       </c>
       <c r="S4">
-        <v>0.06177966132480503</v>
+        <v>6.554804516960852E-05</v>
       </c>
       <c r="T4">
-        <v>0.06177966132480503</v>
+        <v>5.454138936894245E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H5">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I5">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J5">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.23307801840441</v>
+        <v>12.76807333333333</v>
       </c>
       <c r="N5">
-        <v>7.23307801840441</v>
+        <v>38.30422</v>
       </c>
       <c r="O5">
-        <v>0.11643505715144</v>
+        <v>0.1949335487110041</v>
       </c>
       <c r="P5">
-        <v>0.11643505715144</v>
+        <v>0.2241658216409695</v>
       </c>
       <c r="Q5">
-        <v>7.595794940262996</v>
+        <v>14.28244343910667</v>
       </c>
       <c r="R5">
-        <v>7.595794940262996</v>
+        <v>85.69466063464</v>
       </c>
       <c r="S5">
-        <v>0.03839261553004142</v>
+        <v>0.04599400506964081</v>
       </c>
       <c r="T5">
-        <v>0.03839261553004142</v>
+        <v>0.03827081238882619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.13468220916671</v>
+        <v>1.118606</v>
       </c>
       <c r="H6">
-        <v>2.13468220916671</v>
+        <v>2.237212</v>
       </c>
       <c r="I6">
-        <v>0.6702658420126295</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J6">
-        <v>0.6702658420126295</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.2421187233098</v>
+        <v>7.374131</v>
       </c>
       <c r="N6">
-        <v>18.2421187233098</v>
+        <v>14.748262</v>
       </c>
       <c r="O6">
-        <v>0.2936539783903066</v>
+        <v>0.1125828061103835</v>
       </c>
       <c r="P6">
-        <v>0.2936539783903066</v>
+        <v>0.08631049709421805</v>
       </c>
       <c r="Q6">
-        <v>38.94112629615637</v>
+        <v>8.248747181385999</v>
       </c>
       <c r="R6">
-        <v>38.94112629615637</v>
+        <v>32.994988725544</v>
       </c>
       <c r="S6">
-        <v>0.1968262310861374</v>
+        <v>0.02656358635666217</v>
       </c>
       <c r="T6">
-        <v>0.1968262310861374</v>
+        <v>0.0147353990777845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.13468220916671</v>
+        <v>0.8395846666666666</v>
       </c>
       <c r="H7">
-        <v>2.13468220916671</v>
+        <v>2.518754</v>
       </c>
       <c r="I7">
-        <v>0.6702658420126295</v>
+        <v>0.1770932440941826</v>
       </c>
       <c r="J7">
-        <v>0.6702658420126295</v>
+        <v>0.1922104066269082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.0067970736347</v>
+        <v>18.2502405</v>
       </c>
       <c r="N7">
-        <v>25.0067970736347</v>
+        <v>36.500481</v>
       </c>
       <c r="O7">
-        <v>0.4025489340823427</v>
+        <v>0.2786312431497853</v>
       </c>
       <c r="P7">
-        <v>0.4025489340823427</v>
+        <v>0.2136098924258371</v>
       </c>
       <c r="Q7">
-        <v>53.38156482133014</v>
+        <v>15.322622086779</v>
       </c>
       <c r="R7">
-        <v>53.38156482133014</v>
+        <v>91.93573252067399</v>
       </c>
       <c r="S7">
-        <v>0.2698148002539879</v>
+        <v>0.04934371075539046</v>
       </c>
       <c r="T7">
-        <v>0.2698148002539879</v>
+        <v>0.04105804428270027</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.13468220916671</v>
+        <v>0.8395846666666666</v>
       </c>
       <c r="H8">
-        <v>2.13468220916671</v>
+        <v>2.518754</v>
       </c>
       <c r="I8">
-        <v>0.6702658420126295</v>
+        <v>0.1770932440941826</v>
       </c>
       <c r="J8">
-        <v>0.6702658420126295</v>
+        <v>0.1922104066269082</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6391421668904</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N8">
-        <v>11.6391421668904</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O8">
-        <v>0.1873620303759107</v>
+        <v>0.4135745938006323</v>
       </c>
       <c r="P8">
-        <v>0.1873620303759107</v>
+        <v>0.4755943204347743</v>
       </c>
       <c r="Q8">
-        <v>24.84586971362301</v>
+        <v>22.74349112419378</v>
       </c>
       <c r="R8">
-        <v>24.84586971362301</v>
+        <v>204.691420117744</v>
       </c>
       <c r="S8">
-        <v>0.1255823690511056</v>
+        <v>0.07324126649108778</v>
       </c>
       <c r="T8">
-        <v>0.1255823690511056</v>
+        <v>0.09141417772021607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,805 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.8395846666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.518754</v>
+      </c>
+      <c r="I9">
+        <v>0.1770932440941826</v>
+      </c>
+      <c r="J9">
+        <v>0.1922104066269082</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.054589</v>
+      </c>
+      <c r="O9">
+        <v>0.0002778082281948308</v>
+      </c>
+      <c r="P9">
+        <v>0.0003194684042008658</v>
+      </c>
+      <c r="Q9">
+        <v>0.01527736245622222</v>
+      </c>
+      <c r="R9">
+        <v>0.137496262106</v>
+      </c>
+      <c r="S9">
+        <v>4.919796036707954E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.140515187589788E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.8395846666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.518754</v>
+      </c>
+      <c r="I10">
+        <v>0.1770932440941826</v>
+      </c>
+      <c r="J10">
+        <v>0.1922104066269082</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.76807333333333</v>
+      </c>
+      <c r="N10">
+        <v>38.30422</v>
+      </c>
+      <c r="O10">
+        <v>0.1949335487110041</v>
+      </c>
+      <c r="P10">
+        <v>0.2241658216409695</v>
+      </c>
+      <c r="Q10">
+        <v>10.71987859354222</v>
+      </c>
+      <c r="R10">
+        <v>96.47890734188</v>
+      </c>
+      <c r="S10">
+        <v>0.03452141452402308</v>
+      </c>
+      <c r="T10">
+        <v>0.04308700372946574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.8395846666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.518754</v>
+      </c>
+      <c r="I11">
+        <v>0.1770932440941826</v>
+      </c>
+      <c r="J11">
+        <v>0.1922104066269082</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.374131</v>
+      </c>
+      <c r="N11">
+        <v>14.748262</v>
+      </c>
+      <c r="O11">
+        <v>0.1125828061103835</v>
+      </c>
+      <c r="P11">
+        <v>0.08631049709421805</v>
+      </c>
+      <c r="Q11">
+        <v>6.191207317591333</v>
+      </c>
+      <c r="R11">
+        <v>37.147243905548</v>
+      </c>
+      <c r="S11">
+        <v>0.01993765436331418</v>
+      </c>
+      <c r="T11">
+        <v>0.01658977574265023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.156252</v>
+      </c>
+      <c r="H12">
+        <v>6.468756</v>
+      </c>
+      <c r="I12">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J12">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.2502405</v>
+      </c>
+      <c r="N12">
+        <v>36.500481</v>
+      </c>
+      <c r="O12">
+        <v>0.2786312431497853</v>
+      </c>
+      <c r="P12">
+        <v>0.2136098924258371</v>
+      </c>
+      <c r="Q12">
+        <v>39.352117578606</v>
+      </c>
+      <c r="R12">
+        <v>236.112705471636</v>
+      </c>
+      <c r="S12">
+        <v>0.1267263198435403</v>
+      </c>
+      <c r="T12">
+        <v>0.1054467686411548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.156252</v>
+      </c>
+      <c r="H13">
+        <v>6.468756</v>
+      </c>
+      <c r="I13">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J13">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.08897866666667</v>
+      </c>
+      <c r="N13">
+        <v>81.26693600000002</v>
+      </c>
+      <c r="O13">
+        <v>0.4135745938006323</v>
+      </c>
+      <c r="P13">
+        <v>0.4755943204347743</v>
+      </c>
+      <c r="Q13">
+        <v>58.41066442795734</v>
+      </c>
+      <c r="R13">
+        <v>525.6959798516161</v>
+      </c>
+      <c r="S13">
+        <v>0.1881008951496744</v>
+      </c>
+      <c r="T13">
+        <v>0.2347732293875122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.156252</v>
+      </c>
+      <c r="H14">
+        <v>6.468756</v>
+      </c>
+      <c r="I14">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J14">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.054589</v>
+      </c>
+      <c r="O14">
+        <v>0.0002778082281948308</v>
+      </c>
+      <c r="P14">
+        <v>0.0003194684042008658</v>
+      </c>
+      <c r="Q14">
+        <v>0.03923588014266666</v>
+      </c>
+      <c r="R14">
+        <v>0.353122921284</v>
+      </c>
+      <c r="S14">
+        <v>0.0001263519983739214</v>
+      </c>
+      <c r="T14">
+        <v>0.0001577029533762034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.156252</v>
+      </c>
+      <c r="H15">
+        <v>6.468756</v>
+      </c>
+      <c r="I15">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J15">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.76807333333333</v>
+      </c>
+      <c r="N15">
+        <v>38.30422</v>
+      </c>
+      <c r="O15">
+        <v>0.1949335487110041</v>
+      </c>
+      <c r="P15">
+        <v>0.2241658216409695</v>
+      </c>
+      <c r="Q15">
+        <v>27.53118366114667</v>
+      </c>
+      <c r="R15">
+        <v>247.78065295032</v>
+      </c>
+      <c r="S15">
+        <v>0.08865915739717392</v>
+      </c>
+      <c r="T15">
+        <v>0.1106576163837373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.156252</v>
+      </c>
+      <c r="H16">
+        <v>6.468756</v>
+      </c>
+      <c r="I16">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J16">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.374131</v>
+      </c>
+      <c r="N16">
+        <v>14.748262</v>
+      </c>
+      <c r="O16">
+        <v>0.1125828061103835</v>
+      </c>
+      <c r="P16">
+        <v>0.08631049709421805</v>
+      </c>
+      <c r="Q16">
+        <v>15.900484717012</v>
+      </c>
+      <c r="R16">
+        <v>95.40290830207201</v>
+      </c>
+      <c r="S16">
+        <v>0.05120461199808111</v>
+      </c>
+      <c r="T16">
+        <v>0.04260646787019422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.879428</v>
+      </c>
+      <c r="I17">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J17">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.2502405</v>
+      </c>
+      <c r="N17">
+        <v>36.500481</v>
+      </c>
+      <c r="O17">
+        <v>0.2786312431497853</v>
+      </c>
+      <c r="P17">
+        <v>0.2136098924258371</v>
+      </c>
+      <c r="Q17">
+        <v>11.433337667478</v>
+      </c>
+      <c r="R17">
+        <v>68.600026004868</v>
+      </c>
+      <c r="S17">
+        <v>0.03681897939123153</v>
+      </c>
+      <c r="T17">
+        <v>0.03063643295460645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.13468220916671</v>
-      </c>
-      <c r="H9">
-        <v>2.13468220916671</v>
-      </c>
-      <c r="I9">
-        <v>0.6702658420126295</v>
-      </c>
-      <c r="J9">
-        <v>0.6702658420126295</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.23307801840441</v>
-      </c>
-      <c r="N9">
-        <v>7.23307801840441</v>
-      </c>
-      <c r="O9">
-        <v>0.11643505715144</v>
-      </c>
-      <c r="P9">
-        <v>0.11643505715144</v>
-      </c>
-      <c r="Q9">
-        <v>15.44032296340269</v>
-      </c>
-      <c r="R9">
-        <v>15.44032296340269</v>
-      </c>
-      <c r="S9">
-        <v>0.07804244162139856</v>
-      </c>
-      <c r="T9">
-        <v>0.07804244162139856</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.879428</v>
+      </c>
+      <c r="I18">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J18">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>27.08897866666667</v>
+      </c>
+      <c r="N18">
+        <v>81.26693600000002</v>
+      </c>
+      <c r="O18">
+        <v>0.4135745938006323</v>
+      </c>
+      <c r="P18">
+        <v>0.4755943204347743</v>
+      </c>
+      <c r="Q18">
+        <v>16.97059499917867</v>
+      </c>
+      <c r="R18">
+        <v>152.735354992608</v>
+      </c>
+      <c r="S18">
+        <v>0.05465070705547748</v>
+      </c>
+      <c r="T18">
+        <v>0.06821085552791191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.879428</v>
+      </c>
+      <c r="I19">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J19">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01819633333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.054589</v>
+      </c>
+      <c r="O19">
+        <v>0.0002778082281948308</v>
+      </c>
+      <c r="P19">
+        <v>0.0003194684042008658</v>
+      </c>
+      <c r="Q19">
+        <v>0.01139956612133333</v>
+      </c>
+      <c r="R19">
+        <v>0.102596095092</v>
+      </c>
+      <c r="S19">
+        <v>3.671022428422131E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.581890957982202E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.879428</v>
+      </c>
+      <c r="I20">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J20">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.76807333333333</v>
+      </c>
+      <c r="N20">
+        <v>38.30422</v>
+      </c>
+      <c r="O20">
+        <v>0.1949335487110041</v>
+      </c>
+      <c r="P20">
+        <v>0.2241658216409695</v>
+      </c>
+      <c r="Q20">
+        <v>7.998891509573332</v>
+      </c>
+      <c r="R20">
+        <v>71.99002358615999</v>
+      </c>
+      <c r="S20">
+        <v>0.02575897172016626</v>
+      </c>
+      <c r="T20">
+        <v>0.03215038913894026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.879428</v>
+      </c>
+      <c r="I21">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J21">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.374131</v>
+      </c>
+      <c r="N21">
+        <v>14.748262</v>
+      </c>
+      <c r="O21">
+        <v>0.1125828061103835</v>
+      </c>
+      <c r="P21">
+        <v>0.08631049709421805</v>
+      </c>
+      <c r="Q21">
+        <v>4.619716092356</v>
+      </c>
+      <c r="R21">
+        <v>27.718296554136</v>
+      </c>
+      <c r="S21">
+        <v>0.01487695339232607</v>
+      </c>
+      <c r="T21">
+        <v>0.01237885440358909</v>
       </c>
     </row>
   </sheetData>
